--- a/US/data/BOC/FTD/FTDE/exhibit_history.xlsx
+++ b/US/data/BOC/FTD/FTDE/exhibit_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ019fs\ftd53\tdsb2\Internet\Current\statistics\historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E19708-16DC-46F4-91B3-EC650740F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2BC982-01E7-4202-8E0E-001BE59BCD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2A49323-3FE4-4DA6-9C3C-EA7CB3A4CAA1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7725D4F8-A414-4E5A-ABCC-7990528FF02B}"/>
   </bookViews>
   <sheets>
     <sheet name="exhibit_history" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 20" xfId="1" xr:uid="{AF541E62-5412-43C2-9C1F-63D44BCED0CD}"/>
+    <cellStyle name="Normal 20" xfId="1" xr:uid="{551CB0C6-E044-49B6-874E-0DC0483F7C74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,10 +875,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Home"/>
       <sheetName val="raw"/>
       <sheetName val="exhibit_history"/>
       <sheetName val="Dates"/>
+      <sheetName val="Home"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -51737,7 +51737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD4FC41-5522-4776-9C18-F5786003602A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C4477E-9370-44C0-9CD6-89915E440DA0}">
   <sheetPr transitionEvaluation="1" codeName="Sheet2"/>
   <dimension ref="A1:IS441"/>
   <sheetViews>
@@ -64558,31 +64558,31 @@
         <v>10</v>
       </c>
       <c r="B328" s="19">
-        <v>-491421</v>
+        <v>-490776</v>
       </c>
       <c r="C328" s="19">
         <v>-761868</v>
       </c>
       <c r="D328" s="20">
-        <v>270447</v>
+        <v>271092</v>
       </c>
       <c r="E328" s="19">
-        <v>2280041</v>
+        <v>2280778</v>
       </c>
       <c r="F328" s="19">
         <v>1511381</v>
       </c>
       <c r="G328" s="20">
-        <v>768660</v>
+        <v>769397</v>
       </c>
       <c r="H328" s="19">
-        <v>2771462</v>
+        <v>2771554</v>
       </c>
       <c r="I328" s="19">
         <v>2273249</v>
       </c>
       <c r="J328" s="21">
-        <v>498213</v>
+        <v>498305</v>
       </c>
       <c r="K328" s="25"/>
       <c r="L328" s="25"/>
@@ -64599,31 +64599,31 @@
         <v>44</v>
       </c>
       <c r="B329" s="23">
-        <v>-38871</v>
+        <v>-38865</v>
       </c>
       <c r="C329" s="23">
         <v>-62102</v>
       </c>
       <c r="D329" s="24">
-        <v>23231</v>
+        <v>23237</v>
       </c>
       <c r="E329" s="23">
-        <v>194274</v>
+        <v>194245</v>
       </c>
       <c r="F329" s="23">
         <v>130199</v>
       </c>
       <c r="G329" s="24">
-        <v>64075</v>
+        <v>64046</v>
       </c>
       <c r="H329" s="23">
-        <v>233146</v>
+        <v>233110</v>
       </c>
       <c r="I329" s="23">
         <v>192301</v>
       </c>
       <c r="J329" s="25">
-        <v>40845</v>
+        <v>40809</v>
       </c>
       <c r="K329" s="25"/>
       <c r="L329" s="25"/>
@@ -64640,31 +64640,31 @@
         <v>12</v>
       </c>
       <c r="B330" s="23">
-        <v>-33888</v>
+        <v>-33903</v>
       </c>
       <c r="C330" s="23">
         <v>-57664</v>
       </c>
       <c r="D330" s="24">
-        <v>23776</v>
+        <v>23761</v>
       </c>
       <c r="E330" s="23">
-        <v>191937</v>
+        <v>191934</v>
       </c>
       <c r="F330" s="23">
         <v>127893</v>
       </c>
       <c r="G330" s="24">
-        <v>64044</v>
+        <v>64041</v>
       </c>
       <c r="H330" s="23">
-        <v>225825</v>
+        <v>225837</v>
       </c>
       <c r="I330" s="23">
         <v>185557</v>
       </c>
       <c r="J330" s="25">
-        <v>40268</v>
+        <v>40280</v>
       </c>
       <c r="K330" s="25"/>
       <c r="L330" s="25"/>
@@ -64681,31 +64681,31 @@
         <v>13</v>
       </c>
       <c r="B331" s="23">
-        <v>-48699</v>
+        <v>-48732</v>
       </c>
       <c r="C331" s="23">
         <v>-72184</v>
       </c>
       <c r="D331" s="24">
-        <v>23485</v>
+        <v>23452</v>
       </c>
       <c r="E331" s="23">
-        <v>192268</v>
+        <v>192271</v>
       </c>
       <c r="F331" s="23">
         <v>127813</v>
       </c>
       <c r="G331" s="24">
-        <v>64456</v>
+        <v>64459</v>
       </c>
       <c r="H331" s="23">
-        <v>240967</v>
+        <v>241004</v>
       </c>
       <c r="I331" s="23">
         <v>199997</v>
       </c>
       <c r="J331" s="25">
-        <v>40970</v>
+        <v>41007</v>
       </c>
       <c r="K331" s="25"/>
       <c r="L331" s="25"/>
@@ -64722,31 +64722,31 @@
         <v>14</v>
       </c>
       <c r="B332" s="23">
-        <v>-39853</v>
+        <v>-39836</v>
       </c>
       <c r="C332" s="23">
         <v>-62722</v>
       </c>
       <c r="D332" s="24">
-        <v>22869</v>
+        <v>22886</v>
       </c>
       <c r="E332" s="23">
-        <v>193068</v>
+        <v>193086</v>
       </c>
       <c r="F332" s="23">
         <v>129260</v>
       </c>
       <c r="G332" s="24">
-        <v>63808</v>
+        <v>63826</v>
       </c>
       <c r="H332" s="23">
-        <v>232921</v>
+        <v>232923</v>
       </c>
       <c r="I332" s="23">
         <v>191982</v>
       </c>
       <c r="J332" s="25">
-        <v>40939</v>
+        <v>40940</v>
       </c>
       <c r="K332" s="25"/>
       <c r="L332" s="25"/>
@@ -64763,31 +64763,31 @@
         <v>15</v>
       </c>
       <c r="B333" s="23">
-        <v>-38573</v>
+        <v>-38502</v>
       </c>
       <c r="C333" s="23">
         <v>-61462</v>
       </c>
       <c r="D333" s="24">
-        <v>22888</v>
+        <v>22960</v>
       </c>
       <c r="E333" s="23">
-        <v>191848</v>
+        <v>191918</v>
       </c>
       <c r="F333" s="23">
         <v>127791</v>
       </c>
       <c r="G333" s="24">
-        <v>64057</v>
+        <v>64127</v>
       </c>
       <c r="H333" s="23">
-        <v>230421</v>
+        <v>230420</v>
       </c>
       <c r="I333" s="23">
         <v>189253</v>
       </c>
       <c r="J333" s="25">
-        <v>41168</v>
+        <v>41167</v>
       </c>
       <c r="K333" s="25"/>
       <c r="L333" s="25"/>
@@ -64804,31 +64804,31 @@
         <v>16</v>
       </c>
       <c r="B334" s="23">
-        <v>-42514</v>
+        <v>-42425</v>
       </c>
       <c r="C334" s="23">
         <v>-65486</v>
       </c>
       <c r="D334" s="24">
-        <v>22972</v>
+        <v>23062</v>
       </c>
       <c r="E334" s="23">
-        <v>191427</v>
+        <v>191512</v>
       </c>
       <c r="F334" s="23">
         <v>127095</v>
       </c>
       <c r="G334" s="24">
-        <v>64332</v>
+        <v>64417</v>
       </c>
       <c r="H334" s="23">
-        <v>233941</v>
+        <v>233937</v>
       </c>
       <c r="I334" s="23">
         <v>192581</v>
       </c>
       <c r="J334" s="25">
-        <v>41360</v>
+        <v>41356</v>
       </c>
       <c r="K334" s="25"/>
       <c r="L334" s="25"/>
@@ -64845,31 +64845,31 @@
         <v>17</v>
       </c>
       <c r="B335" s="23">
-        <v>-40395</v>
+        <v>-40340</v>
       </c>
       <c r="C335" s="23">
         <v>-62741</v>
       </c>
       <c r="D335" s="24">
-        <v>22346</v>
+        <v>22400</v>
       </c>
       <c r="E335" s="23">
-        <v>190781</v>
+        <v>190841</v>
       </c>
       <c r="F335" s="23">
         <v>126898</v>
       </c>
       <c r="G335" s="24">
-        <v>63884</v>
+        <v>63943</v>
       </c>
       <c r="H335" s="23">
-        <v>231176</v>
+        <v>231181</v>
       </c>
       <c r="I335" s="23">
         <v>189639</v>
       </c>
       <c r="J335" s="25">
-        <v>41538</v>
+        <v>41542</v>
       </c>
       <c r="K335" s="25"/>
       <c r="L335" s="25"/>
@@ -64886,31 +64886,31 @@
         <v>18</v>
       </c>
       <c r="B336" s="23">
-        <v>-44269</v>
+        <v>-44205</v>
       </c>
       <c r="C336" s="23">
         <v>-66773</v>
       </c>
       <c r="D336" s="24">
-        <v>22503</v>
+        <v>22568</v>
       </c>
       <c r="E336" s="23">
-        <v>188027</v>
+        <v>188084</v>
       </c>
       <c r="F336" s="23">
         <v>123935</v>
       </c>
       <c r="G336" s="24">
-        <v>64092</v>
+        <v>64149</v>
       </c>
       <c r="H336" s="23">
-        <v>232297</v>
+        <v>232289</v>
       </c>
       <c r="I336" s="23">
         <v>190707</v>
       </c>
       <c r="J336" s="25">
-        <v>41589</v>
+        <v>41581</v>
       </c>
       <c r="K336" s="25"/>
       <c r="L336" s="25"/>
@@ -64927,31 +64927,31 @@
         <v>19</v>
       </c>
       <c r="B337" s="23">
-        <v>-41711</v>
+        <v>-41641</v>
       </c>
       <c r="C337" s="23">
         <v>-63547</v>
       </c>
       <c r="D337" s="24">
-        <v>21836</v>
+        <v>21907</v>
       </c>
       <c r="E337" s="23">
-        <v>189061</v>
+        <v>189155</v>
       </c>
       <c r="F337" s="23">
         <v>125167</v>
       </c>
       <c r="G337" s="24">
-        <v>63894</v>
+        <v>63989</v>
       </c>
       <c r="H337" s="23">
-        <v>230772</v>
+        <v>230796</v>
       </c>
       <c r="I337" s="23">
         <v>188714</v>
       </c>
       <c r="J337" s="25">
-        <v>42058</v>
+        <v>42082</v>
       </c>
       <c r="K337" s="25"/>
       <c r="L337" s="25"/>
@@ -64968,31 +64968,31 @@
         <v>20</v>
       </c>
       <c r="B338" s="23">
-        <v>-40955</v>
+        <v>-40873</v>
       </c>
       <c r="C338" s="23">
         <v>-62385</v>
       </c>
       <c r="D338" s="24">
-        <v>21430</v>
+        <v>21513</v>
       </c>
       <c r="E338" s="23">
-        <v>187682</v>
+        <v>187795</v>
       </c>
       <c r="F338" s="23">
         <v>123524</v>
       </c>
       <c r="G338" s="24">
-        <v>64158</v>
+        <v>64272</v>
       </c>
       <c r="H338" s="23">
-        <v>228637</v>
+        <v>228668</v>
       </c>
       <c r="I338" s="23">
         <v>185909</v>
       </c>
       <c r="J338" s="25">
-        <v>42729</v>
+        <v>42759</v>
       </c>
       <c r="K338" s="25"/>
       <c r="L338" s="25"/>
@@ -65009,31 +65009,31 @@
         <v>21</v>
       </c>
       <c r="B339" s="23">
-        <v>-40575</v>
+        <v>-40451</v>
       </c>
       <c r="C339" s="23">
         <v>-62045</v>
       </c>
       <c r="D339" s="24">
-        <v>21470</v>
+        <v>21594</v>
       </c>
       <c r="E339" s="23">
-        <v>185269</v>
+        <v>185419</v>
       </c>
       <c r="F339" s="23">
         <v>121367</v>
       </c>
       <c r="G339" s="24">
-        <v>63902</v>
+        <v>64053</v>
       </c>
       <c r="H339" s="23">
-        <v>225844</v>
+        <v>225870</v>
       </c>
       <c r="I339" s="23">
         <v>183412</v>
       </c>
       <c r="J339" s="25">
-        <v>42432</v>
+        <v>42459</v>
       </c>
       <c r="K339" s="25"/>
       <c r="L339" s="25"/>
@@ -65050,31 +65050,31 @@
         <v>22</v>
       </c>
       <c r="B340" s="27">
-        <v>-41116</v>
+        <v>-41003</v>
       </c>
       <c r="C340" s="27">
         <v>-62757</v>
       </c>
       <c r="D340" s="30">
-        <v>21640</v>
+        <v>21753</v>
       </c>
       <c r="E340" s="27">
-        <v>184399</v>
+        <v>184517</v>
       </c>
       <c r="F340" s="27">
         <v>120441</v>
       </c>
       <c r="G340" s="30">
-        <v>63958</v>
+        <v>64077</v>
       </c>
       <c r="H340" s="27">
-        <v>225515</v>
+        <v>225521</v>
       </c>
       <c r="I340" s="27">
         <v>183198</v>
       </c>
       <c r="J340" s="31">
-        <v>42317</v>
+        <v>42323</v>
       </c>
       <c r="K340" s="25"/>
       <c r="L340" s="25"/>
@@ -65114,31 +65114,31 @@
         <v>10</v>
       </c>
       <c r="B342" s="19">
-        <v>-481475</v>
+        <v>-479458</v>
       </c>
       <c r="C342" s="19">
         <v>-749801</v>
       </c>
       <c r="D342" s="20">
-        <v>268326</v>
+        <v>270343</v>
       </c>
       <c r="E342" s="19">
-        <v>2238336</v>
+        <v>2240823</v>
       </c>
       <c r="F342" s="19">
         <v>1457392</v>
       </c>
       <c r="G342" s="20">
-        <v>780944</v>
+        <v>783431</v>
       </c>
       <c r="H342" s="19">
-        <v>2719811</v>
+        <v>2720281</v>
       </c>
       <c r="I342" s="19">
         <v>2207194</v>
       </c>
       <c r="J342" s="21">
-        <v>512617</v>
+        <v>513088</v>
       </c>
       <c r="K342" s="25"/>
       <c r="L342" s="25"/>
@@ -65155,22 +65155,22 @@
         <v>11</v>
       </c>
       <c r="B343" s="23">
-        <v>-40157</v>
+        <v>-40045</v>
       </c>
       <c r="C343" s="23">
         <v>-61523</v>
       </c>
       <c r="D343" s="24">
-        <v>21366</v>
+        <v>21478</v>
       </c>
       <c r="E343" s="23">
-        <v>180840</v>
+        <v>180951</v>
       </c>
       <c r="F343" s="23">
         <v>117469</v>
       </c>
       <c r="G343" s="24">
-        <v>63370</v>
+        <v>63482</v>
       </c>
       <c r="H343" s="23">
         <v>220997</v>
@@ -65179,7 +65179,7 @@
         <v>178992</v>
       </c>
       <c r="J343" s="25">
-        <v>42005</v>
+        <v>42004</v>
       </c>
       <c r="K343" s="25"/>
       <c r="L343" s="25"/>
@@ -65196,31 +65196,31 @@
         <v>12</v>
       </c>
       <c r="B344" s="23">
-        <v>-43454</v>
+        <v>-43305</v>
       </c>
       <c r="C344" s="23">
         <v>-64299</v>
       </c>
       <c r="D344" s="24">
-        <v>20845</v>
+        <v>20994</v>
       </c>
       <c r="E344" s="23">
-        <v>182895</v>
+        <v>183033</v>
       </c>
       <c r="F344" s="23">
         <v>119526</v>
       </c>
       <c r="G344" s="24">
-        <v>63369</v>
+        <v>63507</v>
       </c>
       <c r="H344" s="23">
-        <v>226349</v>
+        <v>226338</v>
       </c>
       <c r="I344" s="23">
         <v>183825</v>
       </c>
       <c r="J344" s="25">
-        <v>42524</v>
+        <v>42513</v>
       </c>
       <c r="K344" s="25"/>
       <c r="L344" s="25"/>
@@ -65237,31 +65237,31 @@
         <v>13</v>
       </c>
       <c r="B345" s="23">
-        <v>-36916</v>
+        <v>-36801</v>
       </c>
       <c r="C345" s="23">
         <v>-58418</v>
       </c>
       <c r="D345" s="24">
-        <v>21501</v>
+        <v>21617</v>
       </c>
       <c r="E345" s="23">
-        <v>181919</v>
+        <v>182054</v>
       </c>
       <c r="F345" s="23">
         <v>118266</v>
       </c>
       <c r="G345" s="24">
-        <v>63653</v>
+        <v>63787</v>
       </c>
       <c r="H345" s="23">
-        <v>218835</v>
+        <v>218854</v>
       </c>
       <c r="I345" s="23">
         <v>176684</v>
       </c>
       <c r="J345" s="25">
-        <v>42151</v>
+        <v>42170</v>
       </c>
       <c r="K345" s="25"/>
       <c r="L345" s="25"/>
@@ -65278,31 +65278,31 @@
         <v>14</v>
       </c>
       <c r="B346" s="23">
-        <v>-38127</v>
+        <v>-38048</v>
       </c>
       <c r="C346" s="23">
         <v>-59727</v>
       </c>
       <c r="D346" s="24">
-        <v>21600</v>
+        <v>21679</v>
       </c>
       <c r="E346" s="23">
-        <v>184034</v>
+        <v>184167</v>
       </c>
       <c r="F346" s="23">
         <v>119930</v>
       </c>
       <c r="G346" s="24">
-        <v>64104</v>
+        <v>64237</v>
       </c>
       <c r="H346" s="23">
-        <v>222161</v>
+        <v>222215</v>
       </c>
       <c r="I346" s="23">
         <v>179656</v>
       </c>
       <c r="J346" s="25">
-        <v>42504</v>
+        <v>42558</v>
       </c>
       <c r="K346" s="25"/>
       <c r="L346" s="25"/>
@@ -65319,31 +65319,31 @@
         <v>15</v>
       </c>
       <c r="B347" s="23">
-        <v>-39149</v>
+        <v>-39031</v>
       </c>
       <c r="C347" s="23">
         <v>-61969</v>
       </c>
       <c r="D347" s="24">
-        <v>22820</v>
+        <v>22938</v>
       </c>
       <c r="E347" s="23">
-        <v>184948</v>
+        <v>185125</v>
       </c>
       <c r="F347" s="23">
         <v>119814</v>
       </c>
       <c r="G347" s="24">
-        <v>65134</v>
+        <v>65310</v>
       </c>
       <c r="H347" s="23">
-        <v>224097</v>
+        <v>224156</v>
       </c>
       <c r="I347" s="23">
         <v>181783</v>
       </c>
       <c r="J347" s="25">
-        <v>42314</v>
+        <v>42372</v>
       </c>
       <c r="K347" s="25"/>
       <c r="L347" s="25"/>
@@ -65360,31 +65360,31 @@
         <v>16</v>
       </c>
       <c r="B348" s="23">
-        <v>-41873</v>
+        <v>-41719</v>
       </c>
       <c r="C348" s="23">
         <v>-65305</v>
       </c>
       <c r="D348" s="24">
-        <v>23432</v>
+        <v>23586</v>
       </c>
       <c r="E348" s="23">
-        <v>186622</v>
+        <v>186833</v>
       </c>
       <c r="F348" s="23">
         <v>120538</v>
       </c>
       <c r="G348" s="24">
-        <v>66084</v>
+        <v>66295</v>
       </c>
       <c r="H348" s="23">
-        <v>228495</v>
+        <v>228552</v>
       </c>
       <c r="I348" s="23">
         <v>185843</v>
       </c>
       <c r="J348" s="25">
-        <v>42652</v>
+        <v>42709</v>
       </c>
       <c r="K348" s="25"/>
       <c r="L348" s="25"/>
@@ -65401,31 +65401,31 @@
         <v>17</v>
       </c>
       <c r="B349" s="23">
-        <v>-40148</v>
+        <v>-39932</v>
       </c>
       <c r="C349" s="23">
         <v>-63656</v>
       </c>
       <c r="D349" s="24">
-        <v>23508</v>
+        <v>23724</v>
       </c>
       <c r="E349" s="23">
-        <v>187910</v>
+        <v>188195</v>
       </c>
       <c r="F349" s="23">
         <v>121693</v>
       </c>
       <c r="G349" s="24">
-        <v>66217</v>
+        <v>66502</v>
       </c>
       <c r="H349" s="23">
-        <v>228058</v>
+        <v>228127</v>
       </c>
       <c r="I349" s="23">
         <v>185349</v>
       </c>
       <c r="J349" s="25">
-        <v>42709</v>
+        <v>42778</v>
       </c>
       <c r="K349" s="25"/>
       <c r="L349" s="25"/>
@@ -65442,31 +65442,31 @@
         <v>18</v>
       </c>
       <c r="B350" s="23">
-        <v>-40421</v>
+        <v>-40147</v>
       </c>
       <c r="C350" s="23">
         <v>-62638</v>
       </c>
       <c r="D350" s="24">
-        <v>22216</v>
+        <v>22491</v>
       </c>
       <c r="E350" s="23">
-        <v>189850</v>
+        <v>190173</v>
       </c>
       <c r="F350" s="23">
         <v>123500</v>
       </c>
       <c r="G350" s="24">
-        <v>66350</v>
+        <v>66673</v>
       </c>
       <c r="H350" s="23">
-        <v>230271</v>
+        <v>230319</v>
       </c>
       <c r="I350" s="23">
         <v>186137</v>
       </c>
       <c r="J350" s="25">
-        <v>44134</v>
+        <v>44182</v>
       </c>
       <c r="K350" s="25"/>
       <c r="L350" s="25"/>
@@ -65483,31 +65483,31 @@
         <v>19</v>
       </c>
       <c r="B351" s="23">
-        <v>-37237</v>
+        <v>-37004</v>
       </c>
       <c r="C351" s="23">
         <v>-60586</v>
       </c>
       <c r="D351" s="24">
-        <v>23350</v>
+        <v>23582</v>
       </c>
       <c r="E351" s="23">
-        <v>190415</v>
+        <v>190713</v>
       </c>
       <c r="F351" s="23">
         <v>124204</v>
       </c>
       <c r="G351" s="24">
-        <v>66211</v>
+        <v>66509</v>
       </c>
       <c r="H351" s="23">
-        <v>227652</v>
+        <v>227717</v>
       </c>
       <c r="I351" s="23">
         <v>184790</v>
       </c>
       <c r="J351" s="25">
-        <v>42862</v>
+        <v>42927</v>
       </c>
       <c r="K351" s="25"/>
       <c r="L351" s="25"/>
@@ -65524,31 +65524,31 @@
         <v>20</v>
       </c>
       <c r="B352" s="23">
-        <v>-38766</v>
+        <v>-38555</v>
       </c>
       <c r="C352" s="23">
         <v>-61398</v>
       </c>
       <c r="D352" s="24">
-        <v>22632</v>
+        <v>22843</v>
       </c>
       <c r="E352" s="23">
-        <v>189089</v>
+        <v>189343</v>
       </c>
       <c r="F352" s="23">
         <v>123717</v>
       </c>
       <c r="G352" s="24">
-        <v>65372</v>
+        <v>65626</v>
       </c>
       <c r="H352" s="23">
-        <v>227854</v>
+        <v>227898</v>
       </c>
       <c r="I352" s="23">
         <v>185115</v>
       </c>
       <c r="J352" s="25">
-        <v>42740</v>
+        <v>42783</v>
       </c>
       <c r="K352" s="25"/>
       <c r="L352" s="25"/>
@@ -65565,31 +65565,31 @@
         <v>21</v>
       </c>
       <c r="B353" s="23">
-        <v>-44082</v>
+        <v>-43895</v>
       </c>
       <c r="C353" s="23">
         <v>-66799</v>
       </c>
       <c r="D353" s="24">
-        <v>22717</v>
+        <v>22904</v>
       </c>
       <c r="E353" s="23">
-        <v>187434</v>
+        <v>187654</v>
       </c>
       <c r="F353" s="23">
         <v>122076</v>
       </c>
       <c r="G353" s="24">
-        <v>65358</v>
+        <v>65578</v>
       </c>
       <c r="H353" s="23">
-        <v>231516</v>
+        <v>231549</v>
       </c>
       <c r="I353" s="23">
         <v>188875</v>
       </c>
       <c r="J353" s="25">
-        <v>42642</v>
+        <v>42675</v>
       </c>
       <c r="K353" s="25"/>
       <c r="L353" s="25"/>
@@ -65606,31 +65606,31 @@
         <v>22</v>
       </c>
       <c r="B354" s="27">
-        <v>-41144</v>
+        <v>-40977</v>
       </c>
       <c r="C354" s="27">
         <v>-63484</v>
       </c>
       <c r="D354" s="30">
-        <v>22340</v>
+        <v>22507</v>
       </c>
       <c r="E354" s="27">
-        <v>192381</v>
+        <v>192583</v>
       </c>
       <c r="F354" s="27">
         <v>126660</v>
       </c>
       <c r="G354" s="30">
-        <v>65721</v>
+        <v>65923</v>
       </c>
       <c r="H354" s="27">
-        <v>233525</v>
+        <v>233560</v>
       </c>
       <c r="I354" s="27">
         <v>190144</v>
       </c>
       <c r="J354" s="31">
-        <v>43381</v>
+        <v>43415</v>
       </c>
       <c r="K354" s="25"/>
       <c r="L354" s="25"/>
@@ -65670,31 +65670,31 @@
         <v>10</v>
       </c>
       <c r="B356" s="19">
-        <v>-512739</v>
+        <v>-510344.08368146466</v>
       </c>
       <c r="C356" s="19">
-        <v>-799343</v>
+        <v>-799342.8062658445</v>
       </c>
       <c r="D356" s="20">
-        <v>286603</v>
+        <v>288998.72258437984</v>
       </c>
       <c r="E356" s="19">
-        <v>2390779</v>
+        <v>2394476.2297810731</v>
       </c>
       <c r="F356" s="19">
-        <v>1557003</v>
+        <v>1557002.6047901642</v>
       </c>
       <c r="G356" s="20">
-        <v>833775</v>
+        <v>837473.62499090901</v>
       </c>
       <c r="H356" s="19">
-        <v>2903518</v>
+        <v>2904820.3134625377</v>
       </c>
       <c r="I356" s="19">
-        <v>2356346</v>
+        <v>2356345.4110560087</v>
       </c>
       <c r="J356" s="21">
-        <v>547172</v>
+        <v>548474.90240652917</v>
       </c>
       <c r="K356" s="25"/>
       <c r="L356" s="25"/>
@@ -65711,31 +65711,31 @@
         <v>11</v>
       </c>
       <c r="B357" s="23">
-        <v>-42946</v>
+        <v>-43615.770883487508</v>
       </c>
       <c r="C357" s="23">
-        <v>-66075</v>
+        <v>-66401.850023309118</v>
       </c>
       <c r="D357" s="24">
-        <v>23129</v>
+        <v>22786.07913982161</v>
       </c>
       <c r="E357" s="23">
-        <v>195303</v>
+        <v>195435.2109267693</v>
       </c>
       <c r="F357" s="23">
-        <v>128035</v>
+        <v>128320.09973612012</v>
       </c>
       <c r="G357" s="24">
-        <v>67268</v>
+        <v>67115.111190649186</v>
       </c>
       <c r="H357" s="23">
-        <v>238248</v>
+        <v>239050.98181025681</v>
       </c>
       <c r="I357" s="23">
-        <v>194109</v>
+        <v>194721.94975942923</v>
       </c>
       <c r="J357" s="25">
-        <v>44139</v>
+        <v>44329.032050827576</v>
       </c>
       <c r="K357" s="25"/>
       <c r="L357" s="25"/>
@@ -65752,31 +65752,31 @@
         <v>12</v>
       </c>
       <c r="B358" s="23">
-        <v>-39811</v>
+        <v>-39678.470938723629</v>
       </c>
       <c r="C358" s="23">
-        <v>-63669</v>
+        <v>-63592.255356817244</v>
       </c>
       <c r="D358" s="24">
-        <v>23857</v>
+        <v>23913.784418093615</v>
       </c>
       <c r="E358" s="23">
-        <v>195839</v>
+        <v>196492.10483564931</v>
       </c>
       <c r="F358" s="23">
-        <v>127877</v>
+        <v>128275.89093413626</v>
       </c>
       <c r="G358" s="24">
-        <v>67961</v>
+        <v>68216.213901513038</v>
       </c>
       <c r="H358" s="23">
-        <v>235650</v>
+        <v>236170.57577437293</v>
       </c>
       <c r="I358" s="23">
-        <v>191546</v>
+        <v>191868.1462909535</v>
       </c>
       <c r="J358" s="25">
-        <v>44104</v>
+        <v>44302.429483419422</v>
       </c>
       <c r="K358" s="25"/>
       <c r="L358" s="25"/>
@@ -65793,31 +65793,31 @@
         <v>13</v>
       </c>
       <c r="B359" s="23">
-        <v>-41476</v>
+        <v>-41055.01072082021</v>
       </c>
       <c r="C359" s="23">
-        <v>-65152</v>
+        <v>-65053.49194078744</v>
       </c>
       <c r="D359" s="24">
-        <v>23676</v>
+        <v>23998.481219967231</v>
       </c>
       <c r="E359" s="23">
-        <v>195880</v>
+        <v>196213.34284389345</v>
       </c>
       <c r="F359" s="23">
-        <v>127668</v>
+        <v>127612.43580060353</v>
       </c>
       <c r="G359" s="24">
-        <v>68212</v>
+        <v>68600.907043289917</v>
       </c>
       <c r="H359" s="23">
-        <v>237356</v>
+        <v>237268.35356471367</v>
       </c>
       <c r="I359" s="23">
-        <v>192819</v>
+        <v>192665.92774139097</v>
       </c>
       <c r="J359" s="25">
-        <v>44536</v>
+        <v>44602.425823322686</v>
       </c>
       <c r="K359" s="25"/>
       <c r="L359" s="25"/>
@@ -65834,31 +65834,31 @@
         <v>14</v>
       </c>
       <c r="B360" s="23">
-        <v>-44357</v>
+        <v>-44258.454675649569</v>
       </c>
       <c r="C360" s="23">
-        <v>-68125</v>
+        <v>-68404.642417243056</v>
       </c>
       <c r="D360" s="24">
-        <v>23769</v>
+        <v>24146.187741593487</v>
       </c>
       <c r="E360" s="23">
-        <v>195851</v>
+        <v>196038.13032056071</v>
       </c>
       <c r="F360" s="23">
-        <v>127059</v>
+        <v>126819.36687088835</v>
       </c>
       <c r="G360" s="24">
-        <v>68792</v>
+        <v>69218.763449672362</v>
       </c>
       <c r="H360" s="23">
-        <v>240208</v>
+        <v>240296.58499621029</v>
       </c>
       <c r="I360" s="23">
-        <v>195184</v>
+        <v>195224.0092881314</v>
       </c>
       <c r="J360" s="25">
-        <v>45023</v>
+        <v>45072.575708078875</v>
       </c>
       <c r="K360" s="25"/>
       <c r="L360" s="25"/>
@@ -65875,31 +65875,31 @@
         <v>15</v>
       </c>
       <c r="B361" s="23">
-        <v>-44127</v>
+        <v>-43972.217302269652</v>
       </c>
       <c r="C361" s="23">
-        <v>-67210</v>
+        <v>-67183.035935206295</v>
       </c>
       <c r="D361" s="24">
-        <v>23084</v>
+        <v>23210.818632936644</v>
       </c>
       <c r="E361" s="23">
-        <v>195404</v>
+        <v>195532.66213816946</v>
       </c>
       <c r="F361" s="23">
-        <v>126534</v>
+        <v>126302.5246178308</v>
       </c>
       <c r="G361" s="24">
-        <v>68871</v>
+        <v>69230.137520338656</v>
       </c>
       <c r="H361" s="23">
-        <v>239531</v>
+        <v>239504.87944043911</v>
       </c>
       <c r="I361" s="23">
-        <v>193744</v>
+        <v>193485.5605530371</v>
       </c>
       <c r="J361" s="25">
-        <v>45787</v>
+        <v>46019.318887402012</v>
       </c>
       <c r="K361" s="25"/>
       <c r="L361" s="25"/>
@@ -65916,31 +65916,31 @@
         <v>16</v>
       </c>
       <c r="B362" s="23">
-        <v>-43002</v>
+        <v>-42631.181069520811</v>
       </c>
       <c r="C362" s="23">
-        <v>-66176</v>
+        <v>-65991.659171223902</v>
       </c>
       <c r="D362" s="24">
-        <v>23175</v>
+        <v>23360.478101703091</v>
       </c>
       <c r="E362" s="23">
-        <v>197631</v>
+        <v>197989.51600029125</v>
       </c>
       <c r="F362" s="23">
-        <v>128312</v>
+        <v>128407.35495695495</v>
       </c>
       <c r="G362" s="24">
-        <v>69319</v>
+        <v>69582.161043336295</v>
       </c>
       <c r="H362" s="23">
-        <v>240633</v>
+        <v>240620.69706981204</v>
       </c>
       <c r="I362" s="23">
-        <v>194489</v>
+        <v>194399.01412817885</v>
       </c>
       <c r="J362" s="25">
-        <v>46144</v>
+        <v>46221.682941633204</v>
       </c>
       <c r="K362" s="25"/>
       <c r="L362" s="25"/>
@@ -65957,31 +65957,31 @@
         <v>17</v>
       </c>
       <c r="B363" s="23">
-        <v>-42007</v>
+        <v>-42274.009463783375</v>
       </c>
       <c r="C363" s="23">
-        <v>-64922</v>
+        <v>-65482.601585256794</v>
       </c>
       <c r="D363" s="24">
-        <v>22915</v>
+        <v>23208.592121473419</v>
       </c>
       <c r="E363" s="23">
-        <v>197812</v>
+        <v>197259.72433620295</v>
       </c>
       <c r="F363" s="23">
-        <v>128268</v>
+        <v>127503.38061824387</v>
       </c>
       <c r="G363" s="24">
-        <v>69544</v>
+        <v>69756.343717959084</v>
       </c>
       <c r="H363" s="23">
-        <v>239820</v>
+        <v>239533.73379998634</v>
       </c>
       <c r="I363" s="23">
-        <v>193190</v>
+        <v>192985.98220350067</v>
       </c>
       <c r="J363" s="25">
-        <v>46629</v>
+        <v>46547.751596485665</v>
       </c>
       <c r="K363" s="25"/>
       <c r="L363" s="25"/>
@@ -65998,31 +65998,31 @@
         <v>18</v>
       </c>
       <c r="B364" s="23">
-        <v>-41163</v>
+        <v>-40648.207858095193</v>
       </c>
       <c r="C364" s="23">
-        <v>-64494</v>
+        <v>-64313.389170265204</v>
       </c>
       <c r="D364" s="24">
-        <v>23332</v>
+        <v>23665.181312170011</v>
       </c>
       <c r="E364" s="23">
-        <v>198638</v>
+        <v>198956.53524644917</v>
       </c>
       <c r="F364" s="23">
-        <v>128791</v>
+        <v>128828.67107092045</v>
       </c>
       <c r="G364" s="24">
-        <v>69847</v>
+        <v>70127.864175528724</v>
       </c>
       <c r="H364" s="23">
-        <v>239800</v>
+        <v>239604.74310454435</v>
       </c>
       <c r="I364" s="23">
-        <v>193285</v>
+        <v>193142.06024118565</v>
       </c>
       <c r="J364" s="25">
-        <v>46515</v>
+        <v>46462.682863358714</v>
       </c>
       <c r="K364" s="25"/>
       <c r="L364" s="25"/>
@@ -66039,31 +66039,31 @@
         <v>19</v>
       </c>
       <c r="B365" s="23">
-        <v>-41464</v>
+        <v>-40647.707335820189</v>
       </c>
       <c r="C365" s="23">
-        <v>-65397</v>
+        <v>-64979.573280337587</v>
       </c>
       <c r="D365" s="24">
-        <v>23934</v>
+        <v>24331.865944517398</v>
       </c>
       <c r="E365" s="23">
-        <v>200747</v>
+        <v>201124.83583874413</v>
       </c>
       <c r="F365" s="23">
-        <v>130227</v>
+        <v>130310.3365461108</v>
       </c>
       <c r="G365" s="24">
-        <v>70520</v>
+        <v>70814.499292633307</v>
       </c>
       <c r="H365" s="23">
-        <v>242211</v>
+        <v>241772.54317456431</v>
       </c>
       <c r="I365" s="23">
-        <v>195624</v>
+        <v>195289.90982644839</v>
       </c>
       <c r="J365" s="25">
-        <v>46587</v>
+        <v>46482.633348115909</v>
       </c>
       <c r="K365" s="25"/>
       <c r="L365" s="25"/>
@@ -66080,31 +66080,31 @@
         <v>20</v>
       </c>
       <c r="B366" s="23">
-        <v>-41615</v>
+        <v>-41650.454634757465</v>
       </c>
       <c r="C366" s="23">
-        <v>-66411</v>
+        <v>-66665.478053136787</v>
       </c>
       <c r="D366" s="24">
-        <v>24795</v>
+        <v>25015.023418379322</v>
       </c>
       <c r="E366" s="23">
-        <v>202584</v>
+        <v>202854.9904147574</v>
       </c>
       <c r="F366" s="23">
-        <v>131740</v>
+        <v>131635.00188897454</v>
       </c>
       <c r="G366" s="24">
-        <v>70843</v>
+        <v>71219.988525782872</v>
       </c>
       <c r="H366" s="23">
-        <v>244199</v>
+        <v>244505.44504951488</v>
       </c>
       <c r="I366" s="23">
-        <v>198151</v>
+        <v>198300.47994211133</v>
       </c>
       <c r="J366" s="25">
-        <v>46048</v>
+        <v>46204.96510740355</v>
       </c>
       <c r="K366" s="25"/>
       <c r="L366" s="25"/>
@@ -66121,31 +66121,31 @@
         <v>21</v>
       </c>
       <c r="B367" s="39">
-        <v>-44623</v>
+        <v>-44044.798284897777</v>
       </c>
       <c r="C367" s="39">
-        <v>-70189</v>
+        <v>-69835.619053825299</v>
       </c>
       <c r="D367" s="40">
-        <v>25566</v>
+        <v>25790.820768927522</v>
       </c>
       <c r="E367" s="41">
-        <v>205999</v>
+        <v>206889.52035414439</v>
       </c>
       <c r="F367" s="39">
-        <v>134755</v>
+        <v>135162.5370821468</v>
       </c>
       <c r="G367" s="40">
-        <v>71245</v>
+        <v>71726.983271997597</v>
       </c>
       <c r="H367" s="41">
-        <v>250623</v>
+        <v>250934.31863904218</v>
       </c>
       <c r="I367" s="39">
-        <v>204944</v>
+        <v>204998.15613597209</v>
       </c>
       <c r="J367" s="42">
-        <v>45679</v>
+        <v>45936.162503070074</v>
       </c>
       <c r="K367" s="25"/>
       <c r="L367" s="25"/>
@@ -66162,31 +66162,31 @@
         <v>22</v>
       </c>
       <c r="B368" s="39">
-        <v>-46149</v>
+        <v>-45867.800513639464</v>
       </c>
       <c r="C368" s="39">
-        <v>-71522</v>
+        <v>-71439.210278436047</v>
       </c>
       <c r="D368" s="40">
-        <v>25373</v>
+        <v>25571.409764796583</v>
       </c>
       <c r="E368" s="41">
-        <v>209091</v>
+        <v>209689.65652544174</v>
       </c>
       <c r="F368" s="39">
-        <v>137738</v>
+        <v>137825.00466723362</v>
       </c>
       <c r="G368" s="40">
-        <v>71353</v>
+        <v>71864.651858208119</v>
       </c>
       <c r="H368" s="41">
-        <v>255241</v>
+        <v>255557.4570390812</v>
       </c>
       <c r="I368" s="39">
-        <v>209260</v>
+        <v>209264.21494566966</v>
       </c>
       <c r="J368" s="42">
-        <v>45980</v>
+        <v>46293.242093411536</v>
       </c>
       <c r="K368" s="25"/>
       <c r="L368" s="25"/>
@@ -66198,7 +66198,7 @@
       <c r="R368" s="25"/>
       <c r="S368" s="25"/>
     </row>
-    <row r="369" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
+    <row r="369" spans="1:14" s="43" customFormat="1" ht="30.75" customHeight="1">
       <c r="A369" s="14">
         <v>2018</v>
       </c>
@@ -66212,423 +66212,462 @@
       <c r="I369" s="23"/>
       <c r="J369" s="25"/>
     </row>
-    <row r="370" spans="1:10" s="43" customFormat="1" ht="24.75" customHeight="1">
+    <row r="370" spans="1:14" s="43" customFormat="1" ht="24.75" customHeight="1">
       <c r="A370" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B370" s="19">
-        <v>-580950</v>
+        <v>-578594.36962821637</v>
       </c>
       <c r="C370" s="19">
-        <v>-878749</v>
+        <v>-878749.31495342287</v>
       </c>
       <c r="D370" s="20">
-        <v>297799</v>
+        <v>300154.9453252065</v>
       </c>
       <c r="E370" s="19">
-        <v>2538638</v>
+        <v>2542462.4311150783</v>
       </c>
       <c r="F370" s="19">
-        <v>1676913</v>
+        <v>1676912.9576331687</v>
       </c>
       <c r="G370" s="20">
-        <v>861725</v>
+        <v>865549.4734819096</v>
       </c>
       <c r="H370" s="19">
-        <v>3119588</v>
+        <v>3121056.8007432949</v>
       </c>
       <c r="I370" s="19">
-        <v>2555662</v>
+        <v>2555662.2725865915</v>
       </c>
       <c r="J370" s="21">
-        <v>563926</v>
-      </c>
+        <v>565394.52815670311</v>
+      </c>
+      <c r="L370" s="42"/>
+      <c r="M370" s="42"/>
+      <c r="N370" s="42"/>
     </row>
-    <row r="371" spans="1:10" ht="21.75" customHeight="1">
+    <row r="371" spans="1:14" ht="21.75" customHeight="1">
       <c r="A371" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B371" s="23">
-        <v>-47056</v>
+        <v>-46808.952502477681</v>
       </c>
       <c r="C371" s="23">
-        <v>-73780</v>
+        <v>-73682.472136696248</v>
       </c>
       <c r="D371" s="24">
-        <v>26724</v>
+        <v>26873.519634218566</v>
       </c>
       <c r="E371" s="23">
-        <v>206058</v>
+        <v>207234.33214572468</v>
       </c>
       <c r="F371" s="23">
-        <v>134146</v>
+        <v>134568.72345053268</v>
       </c>
       <c r="G371" s="24">
-        <v>71912</v>
+        <v>72665.608695191986</v>
       </c>
       <c r="H371" s="23">
-        <v>253114</v>
+        <v>254043.28464820236</v>
       </c>
       <c r="I371" s="23">
-        <v>207927</v>
+        <v>208251.19558722893</v>
       </c>
       <c r="J371" s="25">
-        <v>45188</v>
-      </c>
+        <v>45792.08906097342</v>
+      </c>
+      <c r="L371" s="42"/>
+      <c r="M371" s="42"/>
+      <c r="N371" s="42"/>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:14">
       <c r="A372" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B372" s="23">
-        <v>-49149</v>
+        <v>-48928.955334116356</v>
       </c>
       <c r="C372" s="23">
-        <v>-75144</v>
+        <v>-75016.265752228617</v>
       </c>
       <c r="D372" s="24">
-        <v>25995</v>
+        <v>26087.310418112262</v>
       </c>
       <c r="E372" s="23">
-        <v>208776</v>
+        <v>210229.48615508905</v>
       </c>
       <c r="F372" s="23">
-        <v>136651</v>
+        <v>137346.04732637689</v>
       </c>
       <c r="G372" s="24">
-        <v>72126</v>
+        <v>72883.438828712169</v>
       </c>
       <c r="H372" s="23">
-        <v>257925</v>
+        <v>259158.4414892054</v>
       </c>
       <c r="I372" s="23">
-        <v>211794</v>
+        <v>212362.31307860551</v>
       </c>
       <c r="J372" s="25">
-        <v>46131</v>
-      </c>
+        <v>46796.128410599908</v>
+      </c>
+      <c r="L372" s="42"/>
+      <c r="M372" s="42"/>
+      <c r="N372" s="42"/>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:14">
       <c r="A373" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B373" s="23">
-        <v>-43981</v>
+        <v>-43734.888279907296</v>
       </c>
       <c r="C373" s="23">
-        <v>-70185</v>
+        <v>-70246.144750889187</v>
       </c>
       <c r="D373" s="24">
-        <v>26204</v>
+        <v>26511.256470981891</v>
       </c>
       <c r="E373" s="23">
-        <v>213123</v>
+        <v>213711.85349523529</v>
       </c>
       <c r="F373" s="23">
-        <v>140858</v>
+        <v>140742.09847197571</v>
       </c>
       <c r="G373" s="24">
-        <v>72265</v>
+        <v>72969.755023259582</v>
       </c>
       <c r="H373" s="23">
-        <v>257104</v>
+        <v>257446.74177514258</v>
       </c>
       <c r="I373" s="23">
-        <v>211043</v>
+        <v>210988.2432228649</v>
       </c>
       <c r="J373" s="25">
-        <v>46061</v>
-      </c>
+        <v>46458.498552277691</v>
+      </c>
+      <c r="L373" s="42"/>
+      <c r="M373" s="42"/>
+      <c r="N373" s="42"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:14">
       <c r="A374" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B374" s="23">
-        <v>-45105</v>
+        <v>-45435.412853216505</v>
       </c>
       <c r="C374" s="23">
-        <v>-69862</v>
+        <v>-70276.636869525595</v>
       </c>
       <c r="D374" s="24">
-        <v>24756</v>
+        <v>24841.22401630909</v>
       </c>
       <c r="E374" s="23">
-        <v>213183</v>
+        <v>212641.0574868861</v>
       </c>
       <c r="F374" s="23">
-        <v>141712</v>
+        <v>141138.12334178301</v>
       </c>
       <c r="G374" s="24">
-        <v>71471</v>
+        <v>71502.934145103092</v>
       </c>
       <c r="H374" s="23">
-        <v>258289</v>
+        <v>258076.47034010262</v>
       </c>
       <c r="I374" s="23">
-        <v>211574</v>
+        <v>211414.7602113086</v>
       </c>
       <c r="J374" s="25">
-        <v>46715</v>
-      </c>
+        <v>46661.710128794002</v>
+      </c>
+      <c r="L374" s="42"/>
+      <c r="M374" s="42"/>
+      <c r="N374" s="42"/>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:14">
       <c r="A375" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B375" s="23">
-        <v>-41185</v>
+        <v>-41671.666664375589</v>
       </c>
       <c r="C375" s="23">
-        <v>-66510</v>
+        <v>-66650.114327113843</v>
       </c>
       <c r="D375" s="24">
-        <v>25325</v>
+        <v>24978.447662738254</v>
       </c>
       <c r="E375" s="23">
-        <v>216094</v>
+        <v>215668.15431233746</v>
       </c>
       <c r="F375" s="23">
-        <v>144282</v>
+        <v>143955.74419384188</v>
       </c>
       <c r="G375" s="24">
-        <v>71812</v>
+        <v>71712.410118495565</v>
       </c>
       <c r="H375" s="23">
-        <v>257279</v>
+        <v>257339.82097671303</v>
       </c>
       <c r="I375" s="23">
-        <v>210792</v>
+        <v>210605.85852095572</v>
       </c>
       <c r="J375" s="25">
-        <v>46487</v>
-      </c>
+        <v>46733.962455757312</v>
+      </c>
+      <c r="L375" s="42"/>
+      <c r="M375" s="42"/>
+      <c r="N375" s="42"/>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:14">
       <c r="A376" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B376" s="23">
-        <v>-44871</v>
+        <v>-45137.991802626952</v>
       </c>
       <c r="C376" s="23">
-        <v>-69238</v>
+        <v>-69398.347921495646</v>
       </c>
       <c r="D376" s="24">
-        <v>24367</v>
+        <v>24260.356118868694</v>
       </c>
       <c r="E376" s="23">
-        <v>213698</v>
+        <v>213422.99583363713</v>
       </c>
       <c r="F376" s="23">
-        <v>142073</v>
+        <v>141933.88325305888</v>
       </c>
       <c r="G376" s="24">
-        <v>71625</v>
+        <v>71489.11258057825</v>
       </c>
       <c r="H376" s="23">
-        <v>258569</v>
+        <v>258560.98763626409</v>
       </c>
       <c r="I376" s="23">
-        <v>211311</v>
+        <v>211332.23117455453</v>
       </c>
       <c r="J376" s="25">
-        <v>47258</v>
-      </c>
+        <v>47228.756461709556</v>
+      </c>
+      <c r="L376" s="42"/>
+      <c r="M376" s="42"/>
+      <c r="N376" s="42"/>
     </row>
-    <row r="377" spans="1:10" ht="24.75" customHeight="1">
+    <row r="377" spans="1:14" ht="24.75" customHeight="1">
       <c r="A377" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B377" s="23">
-        <v>-49512</v>
+        <v>-49658.396063821099</v>
       </c>
       <c r="C377" s="23">
-        <v>-74168</v>
+        <v>-74647.169791924272</v>
       </c>
       <c r="D377" s="24">
-        <v>24655</v>
+        <v>24988.773728103173</v>
       </c>
       <c r="E377" s="23">
-        <v>211824</v>
+        <v>211449.43867326586</v>
       </c>
       <c r="F377" s="23">
-        <v>140203</v>
+        <v>139533.49191511856</v>
       </c>
       <c r="G377" s="24">
-        <v>71621</v>
+        <v>71915.946758147285</v>
       </c>
       <c r="H377" s="23">
-        <v>261336</v>
+        <v>261107.83473708696</v>
       </c>
       <c r="I377" s="23">
-        <v>214370</v>
+        <v>214180.66170704283</v>
       </c>
       <c r="J377" s="25">
-        <v>46966</v>
-      </c>
+        <v>46927.173030044112</v>
+      </c>
+      <c r="L377" s="42"/>
+      <c r="M377" s="42"/>
+      <c r="N377" s="42"/>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:14">
       <c r="A378" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B378" s="23">
-        <v>-49738</v>
+        <v>-49233.293618703668</v>
       </c>
       <c r="C378" s="23">
-        <v>-74793</v>
+        <v>-74581.595097277372</v>
       </c>
       <c r="D378" s="24">
-        <v>25055</v>
+        <v>25348.301478573703</v>
       </c>
       <c r="E378" s="23">
-        <v>211054</v>
+        <v>211245.59046284363</v>
       </c>
       <c r="F378" s="23">
-        <v>139186</v>
+        <v>139074.60464141247</v>
       </c>
       <c r="G378" s="24">
-        <v>71868</v>
+        <v>72170.985821431153</v>
       </c>
       <c r="H378" s="23">
-        <v>260791</v>
+        <v>260478.88408154729</v>
       </c>
       <c r="I378" s="23">
-        <v>213979</v>
+        <v>213656.19973868984</v>
       </c>
       <c r="J378" s="25">
-        <v>46813</v>
-      </c>
+        <v>46822.68434285745</v>
+      </c>
+      <c r="L378" s="42"/>
+      <c r="M378" s="42"/>
+      <c r="N378" s="42"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:14">
       <c r="A379" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B379" s="23">
-        <v>-51773</v>
+        <v>-50890.574068987669</v>
       </c>
       <c r="C379" s="23">
-        <v>-76229</v>
+        <v>-75855.623871861841</v>
       </c>
       <c r="D379" s="24">
-        <v>24455</v>
+        <v>24965.049802874171</v>
       </c>
       <c r="E379" s="23">
-        <v>212793</v>
+        <v>213210.98407528992</v>
       </c>
       <c r="F379" s="23">
-        <v>140901</v>
+        <v>141106.15860382744</v>
       </c>
       <c r="G379" s="24">
-        <v>71892</v>
+        <v>72104.825471462478</v>
       </c>
       <c r="H379" s="23">
-        <v>264566</v>
+        <v>264101.5581442776</v>
       </c>
       <c r="I379" s="23">
-        <v>217130</v>
+        <v>216961.78247568928</v>
       </c>
       <c r="J379" s="25">
-        <v>47436</v>
-      </c>
+        <v>47139.775668588307</v>
+      </c>
+      <c r="L379" s="42"/>
+      <c r="M379" s="42"/>
+      <c r="N379" s="42"/>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:14">
       <c r="A380" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B380" s="23">
-        <v>-52345</v>
+        <v>-52474.735408220346</v>
       </c>
       <c r="C380" s="23">
-        <v>-75981</v>
+        <v>-76455.060012221918</v>
       </c>
       <c r="D380" s="24">
-        <v>23637</v>
+        <v>23980.324604001573</v>
       </c>
       <c r="E380" s="23">
-        <v>213861</v>
+        <v>213920.73051080536</v>
       </c>
       <c r="F380" s="23">
-        <v>142148</v>
+        <v>141976.59871527969</v>
       </c>
       <c r="G380" s="24">
-        <v>71712</v>
+        <v>71944.131795525667</v>
       </c>
       <c r="H380" s="23">
-        <v>266206</v>
+        <v>266395.46591902571</v>
       </c>
       <c r="I380" s="23">
-        <v>218130</v>
+        <v>218431.65872750161</v>
       </c>
       <c r="J380" s="25">
-        <v>48076</v>
-      </c>
+        <v>47963.807191524094</v>
+      </c>
+      <c r="L380" s="42"/>
+      <c r="M380" s="42"/>
+      <c r="N380" s="42"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:14">
       <c r="A381" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B381" s="39">
-        <v>-50547</v>
+        <v>-49549.803010950229</v>
       </c>
       <c r="C381" s="39">
-        <v>-73808</v>
+        <v>-73243.591595504637</v>
       </c>
       <c r="D381" s="40">
-        <v>23261</v>
+        <v>23693.788584554408</v>
       </c>
       <c r="E381" s="41">
-        <v>210383</v>
+        <v>211277.12050517069</v>
       </c>
       <c r="F381" s="39">
-        <v>138676</v>
+        <v>139239.83414712606</v>
       </c>
       <c r="G381" s="40">
-        <v>71707</v>
+        <v>72037.286358044628</v>
       </c>
       <c r="H381" s="41">
-        <v>260930</v>
+        <v>260826.92351612094</v>
       </c>
       <c r="I381" s="39">
-        <v>212484</v>
+        <v>212483.4257426307</v>
       </c>
       <c r="J381" s="42">
-        <v>48446</v>
-      </c>
+        <v>48343.49777349022</v>
+      </c>
+      <c r="L381" s="42"/>
+      <c r="M381" s="42"/>
+      <c r="N381" s="42"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:14">
       <c r="A382" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B382" s="39">
-        <v>-55687</v>
+        <v>-55069.700020812852</v>
       </c>
       <c r="C382" s="39">
-        <v>-79052</v>
+        <v>-78696.29282668361</v>
       </c>
       <c r="D382" s="40">
-        <v>23366</v>
+        <v>23626.592805870758</v>
       </c>
       <c r="E382" s="41">
-        <v>207793</v>
+        <v>208450.68745879334</v>
       </c>
       <c r="F382" s="39">
-        <v>136077</v>
+        <v>136297.64957283554</v>
       </c>
       <c r="G382" s="40">
-        <v>71716</v>
+        <v>72153.03788595782</v>
       </c>
       <c r="H382" s="41">
-        <v>263480</v>
+        <v>263520.3874796062</v>
       </c>
       <c r="I382" s="39">
-        <v>215130</v>
+        <v>214993.94239951915</v>
       </c>
       <c r="J382" s="42">
-        <v>48350</v>
-      </c>
+        <v>48526.445080087062</v>
+      </c>
+      <c r="L382" s="42"/>
+      <c r="M382" s="42"/>
+      <c r="N382" s="42"/>
     </row>
-    <row r="383" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
+    <row r="383" spans="1:14" s="43" customFormat="1" ht="30.75" customHeight="1">
       <c r="A383" s="14">
         <v>2019</v>
       </c>
@@ -66642,36 +66681,36 @@
       <c r="I383" s="23"/>
       <c r="J383" s="25"/>
     </row>
-    <row r="384" spans="1:10" ht="21.75" customHeight="1">
+    <row r="384" spans="1:14" ht="21.75" customHeight="1">
       <c r="A384" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B384" s="19">
-        <v>-576341</v>
+        <v>-559676</v>
       </c>
       <c r="C384" s="19">
-        <v>-861515</v>
+        <v>-857260</v>
       </c>
       <c r="D384" s="20">
-        <v>285174</v>
+        <v>297584</v>
       </c>
       <c r="E384" s="19">
-        <v>2528367</v>
+        <v>2546276</v>
       </c>
       <c r="F384" s="19">
-        <v>1652072</v>
+        <v>1655098</v>
       </c>
       <c r="G384" s="20">
-        <v>876295</v>
+        <v>891177</v>
       </c>
       <c r="H384" s="19">
-        <v>3104708</v>
+        <v>3105952</v>
       </c>
       <c r="I384" s="19">
-        <v>2513587</v>
+        <v>2512358</v>
       </c>
       <c r="J384" s="21">
-        <v>591121</v>
+        <v>593594</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -66679,31 +66718,31 @@
         <v>11</v>
       </c>
       <c r="B385" s="23">
-        <v>-48818</v>
+        <v>-48874</v>
       </c>
       <c r="C385" s="23">
-        <v>-72422</v>
+        <v>-72244</v>
       </c>
       <c r="D385" s="24">
-        <v>23604</v>
+        <v>23370</v>
       </c>
       <c r="E385" s="23">
-        <v>209087</v>
+        <v>210489</v>
       </c>
       <c r="F385" s="23">
-        <v>137716</v>
+        <v>138584</v>
       </c>
       <c r="G385" s="24">
-        <v>71371</v>
+        <v>71905</v>
       </c>
       <c r="H385" s="23">
-        <v>257905</v>
+        <v>259363</v>
       </c>
       <c r="I385" s="23">
-        <v>210138</v>
+        <v>210828</v>
       </c>
       <c r="J385" s="25">
-        <v>47768</v>
+        <v>48535</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -66711,31 +66750,31 @@
         <v>12</v>
       </c>
       <c r="B386" s="23">
-        <v>-48032</v>
+        <v>-47196</v>
       </c>
       <c r="C386" s="23">
-        <v>-71831</v>
+        <v>-70816</v>
       </c>
       <c r="D386" s="24">
-        <v>23799</v>
+        <v>23620</v>
       </c>
       <c r="E386" s="23">
-        <v>210133</v>
+        <v>212172</v>
       </c>
       <c r="F386" s="23">
-        <v>138255</v>
+        <v>139499</v>
       </c>
       <c r="G386" s="24">
-        <v>71878</v>
+        <v>72674</v>
       </c>
       <c r="H386" s="23">
-        <v>258165</v>
+        <v>259368</v>
       </c>
       <c r="I386" s="23">
-        <v>210086</v>
+        <v>210315</v>
       </c>
       <c r="J386" s="25">
-        <v>48079</v>
+        <v>49053</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -66743,31 +66782,31 @@
         <v>13</v>
       </c>
       <c r="B387" s="23">
-        <v>-49777</v>
+        <v>-49138</v>
       </c>
       <c r="C387" s="23">
-        <v>-73355</v>
+        <v>-73100</v>
       </c>
       <c r="D387" s="24">
-        <v>23578</v>
+        <v>23962</v>
       </c>
       <c r="E387" s="23">
-        <v>213813</v>
+        <v>214675</v>
       </c>
       <c r="F387" s="23">
-        <v>141183</v>
+        <v>141049</v>
       </c>
       <c r="G387" s="24">
-        <v>72630</v>
+        <v>73627</v>
       </c>
       <c r="H387" s="23">
-        <v>263590</v>
+        <v>263813</v>
       </c>
       <c r="I387" s="23">
-        <v>214538</v>
+        <v>214149</v>
       </c>
       <c r="J387" s="25">
-        <v>49052</v>
+        <v>49664</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -66775,31 +66814,31 @@
         <v>14</v>
       </c>
       <c r="B388" s="23">
-        <v>-50074</v>
+        <v>-48979</v>
       </c>
       <c r="C388" s="23">
-        <v>-73654</v>
+        <v>-73731</v>
       </c>
       <c r="D388" s="24">
-        <v>23580</v>
+        <v>24752</v>
       </c>
       <c r="E388" s="23">
-        <v>210289</v>
+        <v>211214</v>
       </c>
       <c r="F388" s="23">
-        <v>137284</v>
+        <v>136839</v>
       </c>
       <c r="G388" s="24">
-        <v>73005</v>
+        <v>74375</v>
       </c>
       <c r="H388" s="23">
-        <v>260363</v>
+        <v>260193</v>
       </c>
       <c r="I388" s="23">
-        <v>210937</v>
+        <v>210570</v>
       </c>
       <c r="J388" s="25">
-        <v>49425</v>
+        <v>49623</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -66807,31 +66846,31 @@
         <v>15</v>
       </c>
       <c r="B389" s="23">
-        <v>-51904</v>
+        <v>-50544</v>
       </c>
       <c r="C389" s="23">
-        <v>-76423</v>
+        <v>-75984</v>
       </c>
       <c r="D389" s="24">
-        <v>24520</v>
+        <v>25440</v>
       </c>
       <c r="E389" s="23">
-        <v>213973</v>
+        <v>215226</v>
       </c>
       <c r="F389" s="23">
-        <v>139993</v>
+        <v>139813</v>
       </c>
       <c r="G389" s="24">
-        <v>73980</v>
+        <v>75413</v>
       </c>
       <c r="H389" s="23">
-        <v>265877</v>
+        <v>265770</v>
       </c>
       <c r="I389" s="23">
-        <v>216416</v>
+        <v>215797</v>
       </c>
       <c r="J389" s="25">
-        <v>49461</v>
+        <v>49973</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -66839,31 +66878,31 @@
         <v>16</v>
       </c>
       <c r="B390" s="23">
-        <v>-50390</v>
+        <v>-48902</v>
       </c>
       <c r="C390" s="23">
-        <v>-74285</v>
+        <v>-74292</v>
       </c>
       <c r="D390" s="24">
-        <v>23895</v>
+        <v>25390</v>
       </c>
       <c r="E390" s="23">
-        <v>210575</v>
+        <v>212232</v>
       </c>
       <c r="F390" s="23">
-        <v>136744</v>
+        <v>136850</v>
       </c>
       <c r="G390" s="24">
-        <v>73831</v>
+        <v>75382</v>
       </c>
       <c r="H390" s="23">
-        <v>260965</v>
+        <v>261134</v>
       </c>
       <c r="I390" s="23">
-        <v>211029</v>
+        <v>211143</v>
       </c>
       <c r="J390" s="25">
-        <v>49936</v>
+        <v>49992</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="24.75" customHeight="1">
@@ -66871,31 +66910,31 @@
         <v>17</v>
       </c>
       <c r="B391" s="23">
-        <v>-49959</v>
+        <v>-48351</v>
       </c>
       <c r="C391" s="23">
-        <v>-73237</v>
+        <v>-73442</v>
       </c>
       <c r="D391" s="24">
-        <v>23277</v>
+        <v>25091</v>
       </c>
       <c r="E391" s="23">
-        <v>211469</v>
+        <v>212515</v>
       </c>
       <c r="F391" s="23">
-        <v>138532</v>
+        <v>137930</v>
       </c>
       <c r="G391" s="24">
-        <v>72937</v>
+        <v>74585</v>
       </c>
       <c r="H391" s="23">
-        <v>261428</v>
+        <v>260866</v>
       </c>
       <c r="I391" s="23">
-        <v>211768</v>
+        <v>211372</v>
       </c>
       <c r="J391" s="25">
-        <v>49660</v>
+        <v>49494</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -66903,31 +66942,31 @@
         <v>18</v>
       </c>
       <c r="B392" s="23">
-        <v>-50388</v>
+        <v>-48233</v>
       </c>
       <c r="C392" s="23">
-        <v>-73758</v>
+        <v>-73279</v>
       </c>
       <c r="D392" s="24">
-        <v>23369</v>
+        <v>25046</v>
       </c>
       <c r="E392" s="23">
-        <v>210474</v>
+        <v>212237</v>
       </c>
       <c r="F392" s="23">
-        <v>137434</v>
+        <v>137643</v>
       </c>
       <c r="G392" s="24">
-        <v>73040</v>
+        <v>74595</v>
       </c>
       <c r="H392" s="23">
-        <v>260862</v>
+        <v>260470</v>
       </c>
       <c r="I392" s="23">
-        <v>211192</v>
+        <v>210921</v>
       </c>
       <c r="J392" s="25">
-        <v>49671</v>
+        <v>49549</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -66935,31 +66974,31 @@
         <v>19</v>
       </c>
       <c r="B393" s="23">
-        <v>-48262</v>
+        <v>-44958</v>
       </c>
       <c r="C393" s="23">
-        <v>-71377</v>
+        <v>-70039</v>
       </c>
       <c r="D393" s="24">
-        <v>23115</v>
+        <v>25081</v>
       </c>
       <c r="E393" s="23">
-        <v>208776</v>
+        <v>211048</v>
       </c>
       <c r="F393" s="23">
-        <v>135806</v>
+        <v>136610</v>
       </c>
       <c r="G393" s="24">
-        <v>72970</v>
+        <v>74438</v>
       </c>
       <c r="H393" s="23">
-        <v>257037</v>
+        <v>256006</v>
       </c>
       <c r="I393" s="23">
-        <v>207183</v>
+        <v>206649</v>
       </c>
       <c r="J393" s="25">
-        <v>49854</v>
+        <v>49357</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -66967,31 +67006,31 @@
         <v>20</v>
       </c>
       <c r="B394" s="23">
-        <v>-42720</v>
+        <v>-41926</v>
       </c>
       <c r="C394" s="23">
-        <v>-67038</v>
+        <v>-67586</v>
       </c>
       <c r="D394" s="24">
-        <v>24318</v>
+        <v>25660</v>
       </c>
       <c r="E394" s="23">
-        <v>210157</v>
+        <v>211396</v>
       </c>
       <c r="F394" s="23">
-        <v>136299</v>
+        <v>136380</v>
       </c>
       <c r="G394" s="24">
-        <v>73857</v>
+        <v>75015</v>
       </c>
       <c r="H394" s="23">
-        <v>252877</v>
+        <v>253322</v>
       </c>
       <c r="I394" s="23">
-        <v>203338</v>
+        <v>203966</v>
       </c>
       <c r="J394" s="25">
-        <v>49539</v>
+        <v>49356</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -66999,31 +67038,31 @@
         <v>21</v>
       </c>
       <c r="B395" s="39">
-        <v>-40596</v>
+        <v>-38684</v>
       </c>
       <c r="C395" s="39">
-        <v>-64945</v>
+        <v>-64298</v>
       </c>
       <c r="D395" s="40">
-        <v>24349</v>
+        <v>25613</v>
       </c>
       <c r="E395" s="41">
-        <v>209739</v>
+        <v>211491</v>
       </c>
       <c r="F395" s="39">
-        <v>136127</v>
+        <v>136708</v>
       </c>
       <c r="G395" s="40">
-        <v>73611</v>
+        <v>74782</v>
       </c>
       <c r="H395" s="41">
-        <v>250335</v>
+        <v>250175</v>
       </c>
       <c r="I395" s="39">
-        <v>201072</v>
+        <v>201006</v>
       </c>
       <c r="J395" s="42">
-        <v>49263</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -67031,31 +67070,31 @@
         <v>22</v>
       </c>
       <c r="B396" s="39">
-        <v>-45421</v>
+        <v>-43891</v>
       </c>
       <c r="C396" s="39">
-        <v>-69191</v>
+        <v>-68448</v>
       </c>
       <c r="D396" s="40">
-        <v>23769</v>
+        <v>24557</v>
       </c>
       <c r="E396" s="41">
-        <v>209883</v>
+        <v>211580</v>
       </c>
       <c r="F396" s="39">
-        <v>136699</v>
+        <v>137193</v>
       </c>
       <c r="G396" s="40">
-        <v>73184</v>
+        <v>74386</v>
       </c>
       <c r="H396" s="41">
-        <v>255304</v>
+        <v>255471</v>
       </c>
       <c r="I396" s="39">
-        <v>205889</v>
+        <v>205641</v>
       </c>
       <c r="J396" s="42">
-        <v>49415</v>
+        <v>49830</v>
       </c>
     </row>
     <row r="397" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
@@ -67077,31 +67116,31 @@
         <v>10</v>
       </c>
       <c r="B398" s="50">
-        <v>-676684</v>
+        <v>-653989</v>
       </c>
       <c r="C398" s="51">
-        <v>-922026</v>
+        <v>-913885</v>
       </c>
       <c r="D398" s="52">
-        <v>245342</v>
+        <v>259896</v>
       </c>
       <c r="E398" s="53">
-        <v>2134441</v>
+        <v>2158651</v>
       </c>
       <c r="F398" s="51">
-        <v>1428798</v>
+        <v>1432218</v>
       </c>
       <c r="G398" s="52">
-        <v>705643</v>
+        <v>726433</v>
       </c>
       <c r="H398" s="53">
-        <v>2811125</v>
+        <v>2812640</v>
       </c>
       <c r="I398" s="51">
-        <v>2350825</v>
+        <v>2346103</v>
       </c>
       <c r="J398" s="54">
-        <v>460301</v>
+        <v>466537</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -67109,31 +67148,31 @@
         <v>11</v>
       </c>
       <c r="B399" s="48">
-        <v>-45452</v>
+        <v>-44357</v>
       </c>
       <c r="C399" s="46">
-        <v>-67839</v>
+        <v>-67223</v>
       </c>
       <c r="D399" s="47">
-        <v>22387</v>
+        <v>22866</v>
       </c>
       <c r="E399" s="45">
-        <v>205091</v>
+        <v>207395</v>
       </c>
       <c r="F399" s="46">
-        <v>135567</v>
+        <v>136498</v>
       </c>
       <c r="G399" s="47">
-        <v>69524</v>
+        <v>70897</v>
       </c>
       <c r="H399" s="45">
-        <v>250543</v>
+        <v>251752</v>
       </c>
       <c r="I399" s="46">
-        <v>203406</v>
+        <v>203721</v>
       </c>
       <c r="J399" s="48">
-        <v>47137</v>
+        <v>48031</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -67141,31 +67180,31 @@
         <v>12</v>
       </c>
       <c r="B400" s="48">
-        <v>-41639</v>
+        <v>-40501</v>
       </c>
       <c r="C400" s="46">
-        <v>-63702</v>
+        <v>-62607</v>
       </c>
       <c r="D400" s="47">
-        <v>22063</v>
+        <v>22106</v>
       </c>
       <c r="E400" s="45">
-        <v>204819</v>
+        <v>207648</v>
       </c>
       <c r="F400" s="46">
-        <v>135701</v>
+        <v>137170</v>
       </c>
       <c r="G400" s="47">
-        <v>69118</v>
+        <v>70479</v>
       </c>
       <c r="H400" s="45">
-        <v>246458</v>
+        <v>248149</v>
       </c>
       <c r="I400" s="46">
-        <v>199403</v>
+        <v>199777</v>
       </c>
       <c r="J400" s="48">
-        <v>47055</v>
+        <v>48373</v>
       </c>
     </row>
     <row r="401" spans="1:10">
@@ -67173,31 +67212,31 @@
         <v>13</v>
       </c>
       <c r="B401" s="48">
-        <v>-47157</v>
+        <v>-44847</v>
       </c>
       <c r="C401" s="46">
-        <v>-68718</v>
+        <v>-67497</v>
       </c>
       <c r="D401" s="47">
-        <v>21561</v>
+        <v>22649</v>
       </c>
       <c r="E401" s="45">
-        <v>187490</v>
+        <v>188930</v>
       </c>
       <c r="F401" s="46">
-        <v>126875</v>
+        <v>126756</v>
       </c>
       <c r="G401" s="47">
-        <v>60615</v>
+        <v>62174</v>
       </c>
       <c r="H401" s="45">
-        <v>234647</v>
+        <v>233777</v>
       </c>
       <c r="I401" s="46">
-        <v>195594</v>
+        <v>194253</v>
       </c>
       <c r="J401" s="48">
-        <v>39053</v>
+        <v>39525</v>
       </c>
     </row>
     <row r="402" spans="1:10">
@@ -67205,31 +67244,31 @@
         <v>14</v>
       </c>
       <c r="B402" s="48">
-        <v>-52959</v>
+        <v>-52246</v>
       </c>
       <c r="C402" s="46">
-        <v>-74616</v>
+        <v>-74772</v>
       </c>
       <c r="D402" s="47">
-        <v>21657</v>
+        <v>22526</v>
       </c>
       <c r="E402" s="45">
-        <v>150074</v>
+        <v>150773</v>
       </c>
       <c r="F402" s="46">
-        <v>95025</v>
+        <v>94629</v>
       </c>
       <c r="G402" s="47">
-        <v>55049</v>
+        <v>56144</v>
       </c>
       <c r="H402" s="45">
-        <v>203033</v>
+        <v>203019</v>
       </c>
       <c r="I402" s="46">
-        <v>169641</v>
+        <v>169402</v>
       </c>
       <c r="J402" s="48">
-        <v>33392</v>
+        <v>33618</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -67237,31 +67276,31 @@
         <v>15</v>
       </c>
       <c r="B403" s="48">
-        <v>-54915</v>
+        <v>-54367</v>
       </c>
       <c r="C403" s="46">
-        <v>-76652</v>
+        <v>-76723</v>
       </c>
       <c r="D403" s="56">
-        <v>21736</v>
+        <v>22356</v>
       </c>
       <c r="E403" s="45">
-        <v>146108</v>
+        <v>146249</v>
       </c>
       <c r="F403" s="46">
-        <v>91051</v>
+        <v>90323</v>
       </c>
       <c r="G403" s="48">
-        <v>55056</v>
+        <v>55926</v>
       </c>
       <c r="H403" s="57">
-        <v>201023</v>
+        <v>200616</v>
       </c>
       <c r="I403" s="46">
-        <v>167703</v>
+        <v>167046</v>
       </c>
       <c r="J403" s="48">
-        <v>33320</v>
+        <v>33570</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -67269,31 +67308,31 @@
         <v>16</v>
       </c>
       <c r="B404" s="48">
-        <v>-50675</v>
+        <v>-48972</v>
       </c>
       <c r="C404" s="46">
-        <v>-72004</v>
+        <v>-71253</v>
       </c>
       <c r="D404" s="56">
-        <v>21329</v>
+        <v>22281</v>
       </c>
       <c r="E404" s="45">
-        <v>158805</v>
+        <v>160174</v>
       </c>
       <c r="F404" s="46">
-        <v>103702</v>
+        <v>104017</v>
       </c>
       <c r="G404" s="48">
-        <v>55103</v>
+        <v>56157</v>
       </c>
       <c r="H404" s="57">
-        <v>209480</v>
+        <v>209146</v>
       </c>
       <c r="I404" s="46">
-        <v>175706</v>
+        <v>175270</v>
       </c>
       <c r="J404" s="48">
-        <v>33774</v>
+        <v>33876</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="24.75" customHeight="1">
@@ -67301,31 +67340,31 @@
         <v>17</v>
       </c>
       <c r="B405" s="23">
-        <v>-60743</v>
+        <v>-58818</v>
       </c>
       <c r="C405" s="23">
-        <v>-80792</v>
+        <v>-80509</v>
       </c>
       <c r="D405" s="24">
-        <v>20049</v>
+        <v>21691</v>
       </c>
       <c r="E405" s="23">
-        <v>170908</v>
+        <v>172183</v>
       </c>
       <c r="F405" s="23">
-        <v>115880</v>
+        <v>115637</v>
       </c>
       <c r="G405" s="24">
-        <v>55028</v>
+        <v>56546</v>
       </c>
       <c r="H405" s="23">
-        <v>231651</v>
+        <v>231000</v>
       </c>
       <c r="I405" s="23">
-        <v>196672</v>
+        <v>196145</v>
       </c>
       <c r="J405" s="25">
-        <v>34979</v>
+        <v>34855</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -67333,31 +67372,31 @@
         <v>18</v>
       </c>
       <c r="B406" s="48">
-        <v>-63733</v>
+        <v>-61115</v>
       </c>
       <c r="C406" s="46">
-        <v>-82966</v>
+        <v>-82412</v>
       </c>
       <c r="D406" s="56">
-        <v>19233</v>
+        <v>21297</v>
       </c>
       <c r="E406" s="45">
-        <v>174287</v>
+        <v>176270</v>
       </c>
       <c r="F406" s="46">
-        <v>118981</v>
+        <v>119058</v>
       </c>
       <c r="G406" s="48">
-        <v>55306</v>
+        <v>57212</v>
       </c>
       <c r="H406" s="57">
-        <v>238020</v>
+        <v>237385</v>
       </c>
       <c r="I406" s="46">
-        <v>201947</v>
+        <v>201470</v>
       </c>
       <c r="J406" s="48">
-        <v>36073</v>
+        <v>35915</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -67365,31 +67404,31 @@
         <v>19</v>
       </c>
       <c r="B407" s="48">
-        <v>-62625</v>
+        <v>-59105</v>
       </c>
       <c r="C407" s="46">
-        <v>-81613</v>
+        <v>-80147</v>
       </c>
       <c r="D407" s="56">
-        <v>18987</v>
+        <v>21042</v>
       </c>
       <c r="E407" s="45">
-        <v>178063</v>
+        <v>181292</v>
       </c>
       <c r="F407" s="46">
-        <v>121965</v>
+        <v>122957</v>
       </c>
       <c r="G407" s="48">
-        <v>56099</v>
+        <v>58334</v>
       </c>
       <c r="H407" s="57">
-        <v>240689</v>
+        <v>240396</v>
       </c>
       <c r="I407" s="46">
-        <v>203577</v>
+        <v>203104</v>
       </c>
       <c r="J407" s="48">
-        <v>37111</v>
+        <v>37292</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -67397,31 +67436,31 @@
         <v>20</v>
       </c>
       <c r="B408" s="48">
-        <v>-63678</v>
+        <v>-62107</v>
       </c>
       <c r="C408" s="46">
-        <v>-82127</v>
+        <v>-82161</v>
       </c>
       <c r="D408" s="56">
-        <v>18450</v>
+        <v>20055</v>
       </c>
       <c r="E408" s="45">
-        <v>182732</v>
+        <v>185374</v>
       </c>
       <c r="F408" s="46">
-        <v>125761</v>
+        <v>125779</v>
       </c>
       <c r="G408" s="48">
-        <v>56971</v>
+        <v>59595</v>
       </c>
       <c r="H408" s="57">
-        <v>246410</v>
+        <v>247481</v>
       </c>
       <c r="I408" s="46">
-        <v>207888</v>
+        <v>207940</v>
       </c>
       <c r="J408" s="48">
-        <v>38522</v>
+        <v>39541</v>
       </c>
     </row>
     <row r="409" spans="1:10">
@@ -67429,31 +67468,31 @@
         <v>21</v>
       </c>
       <c r="B409" s="48">
-        <v>-67307</v>
+        <v>-64985</v>
       </c>
       <c r="C409" s="46">
-        <v>-86227</v>
+        <v>-85383</v>
       </c>
       <c r="D409" s="56">
-        <v>18920</v>
+        <v>20398</v>
       </c>
       <c r="E409" s="45">
-        <v>185186</v>
+        <v>188342</v>
       </c>
       <c r="F409" s="46">
-        <v>126789</v>
+        <v>127248</v>
       </c>
       <c r="G409" s="48">
-        <v>58397</v>
+        <v>61095</v>
       </c>
       <c r="H409" s="57">
-        <v>252494</v>
+        <v>253327</v>
       </c>
       <c r="I409" s="46">
-        <v>213017</v>
+        <v>212630</v>
       </c>
       <c r="J409" s="48">
-        <v>39477</v>
+        <v>40697</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -67461,31 +67500,31 @@
         <v>22</v>
       </c>
       <c r="B410" s="48">
-        <v>-65802</v>
+        <v>-62570</v>
       </c>
       <c r="C410" s="46">
-        <v>-84770</v>
+        <v>-83199</v>
       </c>
       <c r="D410" s="56">
-        <v>18969</v>
+        <v>20629</v>
       </c>
       <c r="E410" s="45">
-        <v>190877</v>
+        <v>194020</v>
       </c>
       <c r="F410" s="46">
-        <v>131500</v>
+        <v>132146</v>
       </c>
       <c r="G410" s="48">
-        <v>59377</v>
+        <v>61874</v>
       </c>
       <c r="H410" s="57">
-        <v>256678</v>
+        <v>256590</v>
       </c>
       <c r="I410" s="46">
-        <v>216270</v>
+        <v>215345</v>
       </c>
       <c r="J410" s="48">
-        <v>40408</v>
+        <v>41245</v>
       </c>
     </row>
     <row r="411" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
@@ -67507,31 +67546,31 @@
         <v>10</v>
       </c>
       <c r="B412" s="34">
-        <v>-861383</v>
+        <v>-845047</v>
       </c>
       <c r="C412" s="34">
-        <v>-1091384</v>
+        <v>-1090296</v>
       </c>
       <c r="D412" s="34">
-        <v>230001</v>
+        <v>245248</v>
       </c>
       <c r="E412" s="59">
-        <v>2532955</v>
+        <v>2556638</v>
       </c>
       <c r="F412" s="34">
-        <v>1761709</v>
+        <v>1761364</v>
       </c>
       <c r="G412" s="34">
-        <v>771247</v>
+        <v>795273</v>
       </c>
       <c r="H412" s="60">
-        <v>3394339</v>
+        <v>3401685</v>
       </c>
       <c r="I412" s="34">
-        <v>2853093</v>
+        <v>2851660</v>
       </c>
       <c r="J412" s="34">
-        <v>541245</v>
+        <v>550025</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -67539,31 +67578,31 @@
         <v>11</v>
       </c>
       <c r="B413" s="46">
-        <v>-65124</v>
+        <v>-63828</v>
       </c>
       <c r="C413" s="46">
-        <v>-85957</v>
+        <v>-86378</v>
       </c>
       <c r="D413" s="48">
-        <v>20834</v>
+        <v>22551</v>
       </c>
       <c r="E413" s="57">
-        <v>194531</v>
+        <v>197546</v>
       </c>
       <c r="F413" s="46">
-        <v>134597</v>
+        <v>135206</v>
       </c>
       <c r="G413" s="48">
-        <v>59934</v>
+        <v>62340</v>
       </c>
       <c r="H413" s="57">
-        <v>259654</v>
+        <v>261373</v>
       </c>
       <c r="I413" s="46">
-        <v>220554</v>
+        <v>221584</v>
       </c>
       <c r="J413" s="62">
-        <v>39100</v>
+        <v>39789</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -67571,31 +67610,31 @@
         <v>12</v>
       </c>
       <c r="B414" s="46">
-        <v>-67548</v>
+        <v>-65294</v>
       </c>
       <c r="C414" s="46">
-        <v>-88675</v>
+        <v>-88298</v>
       </c>
       <c r="D414" s="48">
-        <v>21127</v>
+        <v>23004</v>
       </c>
       <c r="E414" s="57">
-        <v>190631</v>
+        <v>193413</v>
       </c>
       <c r="F414" s="46">
-        <v>130533</v>
+        <v>131166</v>
       </c>
       <c r="G414" s="48">
-        <v>60098</v>
+        <v>62246</v>
       </c>
       <c r="H414" s="57">
-        <v>258179</v>
+        <v>258707</v>
       </c>
       <c r="I414" s="46">
-        <v>219208</v>
+        <v>219465</v>
       </c>
       <c r="J414" s="48">
-        <v>38971</v>
+        <v>39242</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -67603,31 +67642,31 @@
         <v>13</v>
       </c>
       <c r="B415" s="46">
-        <v>-71395</v>
+        <v>-68069</v>
       </c>
       <c r="C415" s="46">
-        <v>-92389</v>
+        <v>-90591</v>
       </c>
       <c r="D415" s="48">
-        <v>20993</v>
+        <v>22521</v>
       </c>
       <c r="E415" s="57">
-        <v>205355</v>
+        <v>207372</v>
       </c>
       <c r="F415" s="46">
-        <v>143799</v>
+        <v>144023</v>
       </c>
       <c r="G415" s="48">
-        <v>61556</v>
+        <v>63349</v>
       </c>
       <c r="H415" s="57">
-        <v>276750</v>
+        <v>275441</v>
       </c>
       <c r="I415" s="46">
-        <v>236188</v>
+        <v>234614</v>
       </c>
       <c r="J415" s="48">
-        <v>40563</v>
+        <v>40827</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -67635,31 +67674,31 @@
         <v>14</v>
       </c>
       <c r="B416" s="46">
-        <v>-65428</v>
+        <v>-65724</v>
       </c>
       <c r="C416" s="46">
-        <v>-86419</v>
+        <v>-87488</v>
       </c>
       <c r="D416" s="48">
-        <v>20990</v>
+        <v>21764</v>
       </c>
       <c r="E416" s="57">
-        <v>207737</v>
+        <v>207642</v>
       </c>
       <c r="F416" s="46">
-        <v>145311</v>
+        <v>143927</v>
       </c>
       <c r="G416" s="48">
-        <v>62426</v>
+        <v>63715</v>
       </c>
       <c r="H416" s="57">
-        <v>273166</v>
+        <v>273367</v>
       </c>
       <c r="I416" s="46">
-        <v>231729</v>
+        <v>231416</v>
       </c>
       <c r="J416" s="48">
-        <v>41436</v>
+        <v>41951</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -67667,31 +67706,31 @@
         <v>15</v>
       </c>
       <c r="B417" s="46">
-        <v>-67297</v>
+        <v>-66633</v>
       </c>
       <c r="C417" s="46">
-        <v>-88686</v>
+        <v>-88032</v>
       </c>
       <c r="D417" s="48">
-        <v>21389</v>
+        <v>21399</v>
       </c>
       <c r="E417" s="57">
-        <v>209717</v>
+        <v>210279</v>
       </c>
       <c r="F417" s="46">
-        <v>145874</v>
+        <v>145343</v>
       </c>
       <c r="G417" s="48">
-        <v>63843</v>
+        <v>64935</v>
       </c>
       <c r="H417" s="57">
-        <v>277015</v>
+        <v>276912</v>
       </c>
       <c r="I417" s="46">
-        <v>234561</v>
+        <v>233376</v>
       </c>
       <c r="J417" s="48">
-        <v>42454</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -67699,31 +67738,31 @@
         <v>16</v>
       </c>
       <c r="B418" s="46">
-        <v>-72228</v>
+        <v>-71357</v>
       </c>
       <c r="C418" s="46">
-        <v>-92642</v>
+        <v>-91909</v>
       </c>
       <c r="D418" s="48">
-        <v>20413</v>
+        <v>20551</v>
       </c>
       <c r="E418" s="57">
-        <v>210933</v>
+        <v>212326</v>
       </c>
       <c r="F418" s="46">
-        <v>146166</v>
+        <v>146285</v>
       </c>
       <c r="G418" s="48">
-        <v>64767</v>
+        <v>66041</v>
       </c>
       <c r="H418" s="57">
-        <v>283161</v>
+        <v>283683</v>
       </c>
       <c r="I418" s="46">
-        <v>238808</v>
+        <v>238194</v>
       </c>
       <c r="J418" s="48">
-        <v>44353</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="419" spans="1:10" ht="24.75" customHeight="1">
@@ -67731,31 +67770,31 @@
         <v>17</v>
       </c>
       <c r="B419" s="46">
-        <v>-69712</v>
+        <v>-69382</v>
       </c>
       <c r="C419" s="46">
-        <v>-87136</v>
+        <v>-87707</v>
       </c>
       <c r="D419" s="48">
-        <v>17424</v>
+        <v>18325</v>
       </c>
       <c r="E419" s="57">
-        <v>213385</v>
+        <v>214122</v>
       </c>
       <c r="F419" s="46">
-        <v>148870</v>
+        <v>147928</v>
       </c>
       <c r="G419" s="48">
-        <v>64514</v>
+        <v>66194</v>
       </c>
       <c r="H419" s="57">
-        <v>283097</v>
+        <v>283504</v>
       </c>
       <c r="I419" s="46">
-        <v>236006</v>
+        <v>235635</v>
       </c>
       <c r="J419" s="48">
-        <v>47090</v>
+        <v>47869</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -67763,31 +67802,31 @@
         <v>18</v>
       </c>
       <c r="B420" s="46">
-        <v>-72521</v>
+        <v>-71426</v>
       </c>
       <c r="C420" s="46">
-        <v>-88605</v>
+        <v>-88710</v>
       </c>
       <c r="D420" s="48">
-        <v>16084</v>
+        <v>17284</v>
       </c>
       <c r="E420" s="57">
-        <v>214498</v>
+        <v>215841</v>
       </c>
       <c r="F420" s="46">
-        <v>150041</v>
+        <v>149480</v>
       </c>
       <c r="G420" s="48">
-        <v>64457</v>
+        <v>66361</v>
       </c>
       <c r="H420" s="57">
-        <v>287019</v>
+        <v>287267</v>
       </c>
       <c r="I420" s="46">
-        <v>238646</v>
+        <v>238190</v>
       </c>
       <c r="J420" s="48">
-        <v>48373</v>
+        <v>49077</v>
       </c>
     </row>
     <row r="421" spans="1:10">
@@ -67795,31 +67834,31 @@
         <v>19</v>
       </c>
       <c r="B421" s="46">
-        <v>-81159</v>
+        <v>-78334</v>
       </c>
       <c r="C421" s="45">
-        <v>-97429</v>
+        <v>-96162</v>
       </c>
       <c r="D421" s="25">
-        <v>16269</v>
+        <v>17828</v>
       </c>
       <c r="E421" s="57">
-        <v>208008</v>
+        <v>211618</v>
       </c>
       <c r="F421" s="25">
-        <v>143019</v>
+        <v>144484</v>
       </c>
       <c r="G421" s="56">
-        <v>64988</v>
+        <v>67134</v>
       </c>
       <c r="H421" s="25">
-        <v>289167</v>
+        <v>289952</v>
       </c>
       <c r="I421" s="46">
-        <v>240448</v>
+        <v>240647</v>
       </c>
       <c r="J421" s="48">
-        <v>48719</v>
+        <v>49306</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -67827,31 +67866,31 @@
         <v>20</v>
       </c>
       <c r="B422" s="46">
-        <v>-66945</v>
+        <v>-68156</v>
       </c>
       <c r="C422" s="45">
-        <v>-83324</v>
+        <v>-86233</v>
       </c>
       <c r="D422" s="25">
-        <v>16379</v>
+        <v>18078</v>
       </c>
       <c r="E422" s="57">
-        <v>224752</v>
+        <v>225898</v>
       </c>
       <c r="F422" s="25">
-        <v>159020</v>
+        <v>157621</v>
       </c>
       <c r="G422" s="56">
-        <v>65732</v>
+        <v>68277</v>
       </c>
       <c r="H422" s="25">
-        <v>291697</v>
+        <v>294053</v>
       </c>
       <c r="I422" s="46">
-        <v>242344</v>
+        <v>243854</v>
       </c>
       <c r="J422" s="48">
-        <v>49353</v>
+        <v>50199</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -67859,31 +67898,31 @@
         <v>21</v>
       </c>
       <c r="B423" s="46">
-        <v>-80068</v>
+        <v>-77977</v>
       </c>
       <c r="C423" s="45">
-        <v>-98371</v>
+        <v>-98264</v>
       </c>
       <c r="D423" s="25">
-        <v>18303</v>
+        <v>20287</v>
       </c>
       <c r="E423" s="57">
-        <v>225062</v>
+        <v>228145</v>
       </c>
       <c r="F423" s="25">
-        <v>156271</v>
+        <v>156528</v>
       </c>
       <c r="G423" s="56">
-        <v>68792</v>
+        <v>71617</v>
       </c>
       <c r="H423" s="25">
-        <v>305130</v>
+        <v>306122</v>
       </c>
       <c r="I423" s="46">
-        <v>254642</v>
+        <v>254791</v>
       </c>
       <c r="J423" s="48">
-        <v>50488</v>
+        <v>51330</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -67891,31 +67930,31 @@
         <v>22</v>
       </c>
       <c r="B424" s="46">
-        <v>-81957</v>
+        <v>-78867</v>
       </c>
       <c r="C424" s="45">
-        <v>-101751</v>
+        <v>-100522</v>
       </c>
       <c r="D424" s="25">
-        <v>19794</v>
+        <v>21655</v>
       </c>
       <c r="E424" s="57">
-        <v>228347</v>
+        <v>232437</v>
       </c>
       <c r="F424" s="25">
-        <v>158208</v>
+        <v>159372</v>
       </c>
       <c r="G424" s="56">
-        <v>70139</v>
+        <v>73065</v>
       </c>
       <c r="H424" s="25">
-        <v>310304</v>
+        <v>311304</v>
       </c>
       <c r="I424" s="46">
-        <v>259959</v>
+        <v>259895</v>
       </c>
       <c r="J424" s="48">
-        <v>50345</v>
+        <v>51409</v>
       </c>
     </row>
     <row r="425" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
@@ -67937,31 +67976,31 @@
         <v>10</v>
       </c>
       <c r="B426" s="34">
-        <v>-178414</v>
+        <v>-370846</v>
       </c>
       <c r="C426" s="34">
-        <v>-216073</v>
+        <v>-449984</v>
       </c>
       <c r="D426" s="34">
-        <v>37659</v>
+        <v>79137</v>
       </c>
       <c r="E426" s="59">
-        <v>453120</v>
+        <v>957263</v>
       </c>
       <c r="F426" s="34">
-        <v>314760</v>
+        <v>663528</v>
       </c>
       <c r="G426" s="34">
-        <v>138360</v>
+        <v>293735</v>
       </c>
       <c r="H426" s="60">
-        <v>631534</v>
+        <v>1328110</v>
       </c>
       <c r="I426" s="34">
-        <v>530833</v>
+        <v>1113512</v>
       </c>
       <c r="J426" s="34">
-        <v>100701</v>
+        <v>214598</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -67969,31 +68008,31 @@
         <v>11</v>
       </c>
       <c r="B427" s="46">
-        <v>-89229</v>
+        <v>-87985</v>
       </c>
       <c r="C427" s="25">
-        <v>-108603</v>
+        <v>-108423</v>
       </c>
       <c r="D427" s="56">
-        <v>19374</v>
+        <v>20438</v>
       </c>
       <c r="E427" s="25">
-        <v>224490</v>
+        <v>227786</v>
       </c>
       <c r="F427" s="46">
-        <v>155983</v>
+        <v>156911</v>
       </c>
       <c r="G427" s="25">
-        <v>68507</v>
+        <v>70875</v>
       </c>
       <c r="H427" s="57">
-        <v>313720</v>
+        <v>315771</v>
       </c>
       <c r="I427" s="25">
-        <v>264586</v>
+        <v>265335</v>
       </c>
       <c r="J427" s="48">
-        <v>49133</v>
+        <v>50437</v>
       </c>
     </row>
     <row r="428" spans="1:10">
@@ -68001,60 +68040,96 @@
         <v>12</v>
       </c>
       <c r="B428" s="46">
-        <v>-89185</v>
+        <v>-88134</v>
       </c>
       <c r="C428" s="25">
-        <v>-107470</v>
+        <v>-107014</v>
       </c>
       <c r="D428" s="56">
-        <v>18285</v>
+        <v>18880</v>
       </c>
       <c r="E428" s="25">
-        <v>228630</v>
+        <v>232744</v>
       </c>
       <c r="F428" s="46">
-        <v>158777</v>
+        <v>160471</v>
       </c>
       <c r="G428" s="25">
-        <v>69853</v>
+        <v>72273</v>
       </c>
       <c r="H428" s="57">
-        <v>317814</v>
+        <v>320878</v>
       </c>
       <c r="I428" s="25">
-        <v>266246</v>
+        <v>267485</v>
       </c>
       <c r="J428" s="48">
-        <v>51568</v>
+        <v>53393</v>
       </c>
     </row>
     <row r="429" spans="1:10">
       <c r="A429" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B429" s="46"/>
-      <c r="C429" s="25"/>
-      <c r="D429" s="56"/>
-      <c r="E429" s="25"/>
-      <c r="F429" s="46"/>
-      <c r="G429" s="25"/>
-      <c r="H429" s="57"/>
-      <c r="I429" s="25"/>
-      <c r="J429" s="48"/>
+      <c r="B429" s="46">
+        <v>-107651</v>
+      </c>
+      <c r="C429" s="25">
+        <v>-126810</v>
+      </c>
+      <c r="D429" s="56">
+        <v>19159</v>
+      </c>
+      <c r="E429" s="25">
+        <v>244112</v>
+      </c>
+      <c r="F429" s="46">
+        <v>170040</v>
+      </c>
+      <c r="G429" s="25">
+        <v>74072</v>
+      </c>
+      <c r="H429" s="57">
+        <v>351763</v>
+      </c>
+      <c r="I429" s="25">
+        <v>296850</v>
+      </c>
+      <c r="J429" s="48">
+        <v>54913</v>
+      </c>
     </row>
     <row r="430" spans="1:10">
       <c r="A430" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B430" s="46"/>
-      <c r="C430" s="25"/>
-      <c r="D430" s="56"/>
-      <c r="E430" s="25"/>
-      <c r="F430" s="46"/>
-      <c r="G430" s="25"/>
-      <c r="H430" s="57"/>
-      <c r="I430" s="25"/>
-      <c r="J430" s="48"/>
+      <c r="B430" s="46">
+        <v>-87077</v>
+      </c>
+      <c r="C430" s="25">
+        <v>-107737</v>
+      </c>
+      <c r="D430" s="56">
+        <v>20660</v>
+      </c>
+      <c r="E430" s="25">
+        <v>252621</v>
+      </c>
+      <c r="F430" s="46">
+        <v>176106</v>
+      </c>
+      <c r="G430" s="25">
+        <v>76515</v>
+      </c>
+      <c r="H430" s="57">
+        <v>339697</v>
+      </c>
+      <c r="I430" s="25">
+        <v>283842</v>
+      </c>
+      <c r="J430" s="48">
+        <v>55855</v>
+      </c>
     </row>
     <row r="431" spans="1:10">
       <c r="A431" s="58" t="s">
